--- a/1-Estadisticas.xlsx
+++ b/1-Estadisticas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="215">
   <si>
     <t>WD4356</t>
   </si>
@@ -646,25 +646,19 @@
     <t>BPRX11</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Varianza</t>
   </si>
   <si>
-    <t>1.398209</t>
+    <t>0.603719</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1004,7 @@
         <v>210</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1021,7 +1015,7 @@
         <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1053,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1061,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1069,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1085,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1109,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1141,7 +1135,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1157,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1173,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1189,7 +1183,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1197,7 +1191,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1205,7 +1199,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1237,7 +1231,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1245,7 +1239,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1253,7 +1247,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1285,7 +1279,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1301,7 +1295,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1309,7 +1303,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1341,7 +1335,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1349,7 +1343,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1357,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1373,7 +1367,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1397,7 +1391,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1413,7 +1407,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1453,7 +1447,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1469,7 +1463,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1517,7 +1511,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1525,7 +1519,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1533,7 +1527,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1549,7 +1543,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1557,7 +1551,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1565,7 +1559,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1573,7 +1567,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1581,7 +1575,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1597,7 +1591,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1653,7 +1647,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1661,7 +1655,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1669,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1677,7 +1671,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1685,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1693,7 +1687,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1701,7 +1695,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1709,7 +1703,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1733,7 +1727,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1741,7 +1735,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1781,7 +1775,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1813,7 +1807,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1821,7 +1815,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1837,7 +1831,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1845,7 +1839,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1885,7 +1879,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1925,7 +1919,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1933,7 +1927,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1941,7 +1935,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1957,7 +1951,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1965,7 +1959,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1973,7 +1967,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1997,7 +1991,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2005,7 +1999,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2013,7 +2007,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2021,7 +2015,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2029,7 +2023,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2045,7 +2039,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2053,7 +2047,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2061,7 +2055,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2077,7 +2071,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2117,7 +2111,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2125,7 +2119,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2133,7 +2127,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2141,7 +2135,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2149,7 +2143,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2157,7 +2151,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2173,7 +2167,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2181,7 +2175,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2197,7 +2191,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2213,7 +2207,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2229,7 +2223,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2245,7 +2239,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2253,7 +2247,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2261,7 +2255,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2309,7 +2303,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2325,7 +2319,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2333,7 +2327,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2341,7 +2335,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2349,7 +2343,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2365,7 +2359,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2373,7 +2367,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2405,7 +2399,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2429,7 +2423,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2437,7 +2431,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2445,7 +2439,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2469,7 +2463,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2477,7 +2471,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2493,7 +2487,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2501,7 +2495,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2509,7 +2503,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2525,7 +2519,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2533,7 +2527,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2565,7 +2559,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2597,7 +2591,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2605,7 +2599,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2613,7 +2607,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2645,7 +2639,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2653,7 +2647,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2661,7 +2655,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2677,7 +2671,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:2">
